--- a/AboutMe/蚂蚁推推测试用例0524.xlsx
+++ b/AboutMe/蚂蚁推推测试用例0524.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6525"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25220" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="PC端测试用例" sheetId="2" r:id="rId1"/>
@@ -14,11 +14,16 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PC端测试用例!$A$1:$H$6</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="410">
   <si>
     <t>模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1412,6 +1417,134 @@
   </si>
   <si>
     <t>潘登</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1770,7 +1903,6 @@
     </xf>
   </cellXfs>
   <cellStyles count="157">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1849,84 +1981,85 @@
     <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1984,7 +2117,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2019,7 +2152,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2230,25 +2363,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H167"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F137" sqref="F137:F167"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="8" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="8" customWidth="1"/>
-    <col min="4" max="4" width="35.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.83203125" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.5" style="9" customWidth="1"/>
     <col min="6" max="6" width="19.5" style="21" customWidth="1"/>
-    <col min="7" max="7" width="16.625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="15.75" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="8.875" style="8"/>
+    <col min="7" max="7" width="16.6640625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="51.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2274,7 +2407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="39.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -2293,9 +2426,14 @@
       <c r="F2" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G2" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -2314,9 +2452,14 @@
       <c r="F3" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G3" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="6" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -2335,9 +2478,14 @@
       <c r="F4" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G4" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="6" customFormat="1" ht="17.25" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -2356,9 +2504,14 @@
       <c r="F5" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G5" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="6" customFormat="1" ht="17.25" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -2377,9 +2530,14 @@
       <c r="F6" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G6" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="6" customFormat="1" ht="17.25" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>154</v>
       </c>
@@ -2398,9 +2556,14 @@
       <c r="F7" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="G7" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="45">
       <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
@@ -2419,8 +2582,14 @@
       <c r="F8" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+      <c r="G8" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="45">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -2439,8 +2608,14 @@
       <c r="F9" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G9" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17.25" customHeight="1">
       <c r="A10" s="8" t="s">
         <v>23</v>
       </c>
@@ -2459,8 +2634,14 @@
       <c r="F10" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G10" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17.25" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>23</v>
       </c>
@@ -2479,8 +2660,14 @@
       <c r="F11" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G11" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17.25" customHeight="1">
       <c r="A12" s="8" t="s">
         <v>23</v>
       </c>
@@ -2499,8 +2686,14 @@
       <c r="F12" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G12" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17.25" customHeight="1">
       <c r="A13" s="8" t="s">
         <v>23</v>
       </c>
@@ -2519,8 +2712,14 @@
       <c r="F13" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17.25" customHeight="1">
       <c r="A14" s="8" t="s">
         <v>23</v>
       </c>
@@ -2539,8 +2738,14 @@
       <c r="F14" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G14" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17.25" customHeight="1">
       <c r="A15" s="8" t="s">
         <v>23</v>
       </c>
@@ -2559,8 +2764,14 @@
       <c r="F15" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G15" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17.25" customHeight="1">
       <c r="A16" s="8" t="s">
         <v>23</v>
       </c>
@@ -2579,8 +2790,14 @@
       <c r="F16" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G16" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17.25" customHeight="1">
       <c r="A17" s="8" t="s">
         <v>23</v>
       </c>
@@ -2599,8 +2816,14 @@
       <c r="F17" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G17" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17.25" customHeight="1">
       <c r="A18" s="8" t="s">
         <v>23</v>
       </c>
@@ -2619,8 +2842,14 @@
       <c r="F18" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G18" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17.25" customHeight="1">
       <c r="A19" s="8" t="s">
         <v>23</v>
       </c>
@@ -2639,8 +2868,14 @@
       <c r="F19" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G19" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17.25" customHeight="1">
       <c r="A20" s="8" t="s">
         <v>23</v>
       </c>
@@ -2659,8 +2894,14 @@
       <c r="F20" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G20" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17.25" customHeight="1">
       <c r="A21" s="8" t="s">
         <v>23</v>
       </c>
@@ -2679,8 +2920,14 @@
       <c r="F21" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G21" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="17.25" customHeight="1">
       <c r="A22" s="8" t="s">
         <v>23</v>
       </c>
@@ -2699,8 +2946,14 @@
       <c r="F22" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G22" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17.25" customHeight="1">
       <c r="A23" s="8" t="s">
         <v>23</v>
       </c>
@@ -2719,8 +2972,14 @@
       <c r="F23" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G23" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17.25" customHeight="1">
       <c r="A24" s="8" t="s">
         <v>23</v>
       </c>
@@ -2739,8 +2998,14 @@
       <c r="F24" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G24" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17.25" customHeight="1">
       <c r="A25" s="8" t="s">
         <v>23</v>
       </c>
@@ -2759,8 +3024,14 @@
       <c r="F25" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G25" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="17.25" customHeight="1">
       <c r="A26" s="8" t="s">
         <v>23</v>
       </c>
@@ -2779,8 +3050,14 @@
       <c r="F26" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G26" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="17.25" customHeight="1">
       <c r="A27" s="8" t="s">
         <v>23</v>
       </c>
@@ -2799,8 +3076,14 @@
       <c r="F27" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G27" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="17.25" customHeight="1">
       <c r="A28" s="8" t="s">
         <v>23</v>
       </c>
@@ -2819,8 +3102,14 @@
       <c r="F28" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G28" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="17.25" customHeight="1">
       <c r="A29" s="8" t="s">
         <v>23</v>
       </c>
@@ -2839,8 +3128,14 @@
       <c r="F29" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G29" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="17.25" customHeight="1">
       <c r="A30" s="8" t="s">
         <v>23</v>
       </c>
@@ -2859,8 +3154,14 @@
       <c r="F30" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G30" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="17.25" customHeight="1">
       <c r="A31" s="8" t="s">
         <v>23</v>
       </c>
@@ -2879,8 +3180,14 @@
       <c r="F31" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G31" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="17.25" customHeight="1">
       <c r="A32" s="8" t="s">
         <v>23</v>
       </c>
@@ -2899,8 +3206,14 @@
       <c r="F32" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G32" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="17.25" customHeight="1">
       <c r="A33" s="8" t="s">
         <v>23</v>
       </c>
@@ -2919,8 +3232,14 @@
       <c r="F33" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G33" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="17.25" customHeight="1">
       <c r="A34" s="8" t="s">
         <v>23</v>
       </c>
@@ -2939,8 +3258,14 @@
       <c r="F34" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G34" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="17.25" customHeight="1">
       <c r="A35" s="8" t="s">
         <v>23</v>
       </c>
@@ -2959,8 +3284,14 @@
       <c r="F35" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G35" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="17.25" customHeight="1">
       <c r="A36" s="8" t="s">
         <v>23</v>
       </c>
@@ -2979,8 +3310,14 @@
       <c r="F36" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G36" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="17.25" customHeight="1">
       <c r="A37" s="8" t="s">
         <v>23</v>
       </c>
@@ -2999,8 +3336,14 @@
       <c r="F37" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G37" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="17.25" customHeight="1">
       <c r="A38" s="8" t="s">
         <v>23</v>
       </c>
@@ -3019,8 +3362,14 @@
       <c r="F38" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G38" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="17.25" customHeight="1">
       <c r="A39" s="8" t="s">
         <v>23</v>
       </c>
@@ -3039,8 +3388,14 @@
       <c r="F39" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G39" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="17.25" customHeight="1">
       <c r="A40" s="8" t="s">
         <v>23</v>
       </c>
@@ -3059,8 +3414,14 @@
       <c r="F40" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G40" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="17.25" customHeight="1">
       <c r="A41" s="8" t="s">
         <v>23</v>
       </c>
@@ -3079,8 +3440,14 @@
       <c r="F41" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G41" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="17.25" customHeight="1">
       <c r="A42" s="8" t="s">
         <v>23</v>
       </c>
@@ -3099,8 +3466,14 @@
       <c r="F42" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G42" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="17.25" customHeight="1">
       <c r="A43" s="8" t="s">
         <v>23</v>
       </c>
@@ -3119,8 +3492,14 @@
       <c r="F43" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G43" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="17.25" customHeight="1">
       <c r="A44" s="8" t="s">
         <v>23</v>
       </c>
@@ -3139,8 +3518,14 @@
       <c r="F44" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G44" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="17.25" customHeight="1">
       <c r="A45" s="8" t="s">
         <v>23</v>
       </c>
@@ -3159,8 +3544,14 @@
       <c r="F45" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G45" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="17.25" customHeight="1">
       <c r="A46" s="8" t="s">
         <v>23</v>
       </c>
@@ -3179,8 +3570,14 @@
       <c r="F46" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G46" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="17.25" customHeight="1">
       <c r="A47" s="8" t="s">
         <v>23</v>
       </c>
@@ -3199,8 +3596,14 @@
       <c r="F47" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G47" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="17.25" customHeight="1">
       <c r="A48" s="8" t="s">
         <v>23</v>
       </c>
@@ -3219,8 +3622,14 @@
       <c r="F48" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G48" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="17.25" customHeight="1">
       <c r="A49" s="8" t="s">
         <v>23</v>
       </c>
@@ -3239,8 +3648,14 @@
       <c r="F49" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G49" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="17.25" customHeight="1">
       <c r="A50" s="8" t="s">
         <v>23</v>
       </c>
@@ -3259,8 +3674,14 @@
       <c r="F50" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G50" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="17.25" customHeight="1">
       <c r="A51" s="8" t="s">
         <v>23</v>
       </c>
@@ -3279,8 +3700,14 @@
       <c r="F51" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G51" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="17.25" customHeight="1">
       <c r="A52" s="8" t="s">
         <v>23</v>
       </c>
@@ -3299,8 +3726,14 @@
       <c r="F52" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G52" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="17.25" customHeight="1">
       <c r="A53" s="8" t="s">
         <v>23</v>
       </c>
@@ -3319,8 +3752,14 @@
       <c r="F53" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G53" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="17.25" customHeight="1">
       <c r="A54" s="8" t="s">
         <v>23</v>
       </c>
@@ -3339,8 +3778,14 @@
       <c r="F54" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G54" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="17.25" customHeight="1">
       <c r="A55" s="8" t="s">
         <v>23</v>
       </c>
@@ -3359,8 +3804,14 @@
       <c r="F55" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G55" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="17.25" customHeight="1">
       <c r="A56" s="8" t="s">
         <v>23</v>
       </c>
@@ -3379,8 +3830,14 @@
       <c r="F56" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G56" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="17.25" customHeight="1">
       <c r="A57" s="8" t="s">
         <v>23</v>
       </c>
@@ -3399,8 +3856,14 @@
       <c r="F57" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G57" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="17.25" customHeight="1">
       <c r="A58" s="8" t="s">
         <v>23</v>
       </c>
@@ -3419,8 +3882,14 @@
       <c r="F58" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G58" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="17.25" customHeight="1">
       <c r="A59" s="8" t="s">
         <v>23</v>
       </c>
@@ -3439,8 +3908,14 @@
       <c r="F59" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G59" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="17.25" customHeight="1">
       <c r="A60" s="8" t="s">
         <v>23</v>
       </c>
@@ -3459,8 +3934,14 @@
       <c r="F60" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G60" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="17.25" customHeight="1">
       <c r="A61" s="8" t="s">
         <v>23</v>
       </c>
@@ -3479,8 +3960,14 @@
       <c r="F61" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G61" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="17.25" customHeight="1">
       <c r="A62" s="8" t="s">
         <v>23</v>
       </c>
@@ -3499,8 +3986,14 @@
       <c r="F62" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G62" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="17.25" customHeight="1">
       <c r="A63" s="8" t="s">
         <v>77</v>
       </c>
@@ -3520,7 +4013,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" ht="17.25" customHeight="1">
       <c r="A64" s="8" t="s">
         <v>77</v>
       </c>
@@ -3540,7 +4033,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" ht="17.25" customHeight="1">
       <c r="A65" s="8" t="s">
         <v>77</v>
       </c>
@@ -3560,7 +4053,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" ht="17.25" customHeight="1">
       <c r="A66" s="8" t="s">
         <v>77</v>
       </c>
@@ -3580,7 +4073,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" ht="17.25" customHeight="1">
       <c r="A67" s="8" t="s">
         <v>77</v>
       </c>
@@ -3600,7 +4093,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" ht="17.25" customHeight="1">
       <c r="A68" s="8" t="s">
         <v>77</v>
       </c>
@@ -3620,7 +4113,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" ht="17.25" customHeight="1">
       <c r="A69" s="8" t="s">
         <v>77</v>
       </c>
@@ -3640,7 +4133,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" ht="17.25" customHeight="1">
       <c r="A70" s="8" t="s">
         <v>77</v>
       </c>
@@ -3660,7 +4153,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" ht="17.25" customHeight="1">
       <c r="A71" s="8" t="s">
         <v>77</v>
       </c>
@@ -3680,7 +4173,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" ht="17.25" customHeight="1">
       <c r="A72" s="8" t="s">
         <v>77</v>
       </c>
@@ -3700,7 +4193,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" ht="17.25" customHeight="1">
       <c r="A73" s="8" t="s">
         <v>77</v>
       </c>
@@ -3720,7 +4213,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" ht="17.25" customHeight="1">
       <c r="A74" s="8" t="s">
         <v>77</v>
       </c>
@@ -3740,7 +4233,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" ht="17.25" customHeight="1">
       <c r="A75" s="8" t="s">
         <v>77</v>
       </c>
@@ -3760,7 +4253,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" ht="17.25" customHeight="1">
       <c r="A76" s="8" t="s">
         <v>77</v>
       </c>
@@ -3780,7 +4273,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" ht="17.25" customHeight="1">
       <c r="A77" s="8" t="s">
         <v>77</v>
       </c>
@@ -3800,7 +4293,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" ht="17.25" customHeight="1">
       <c r="A78" s="8" t="s">
         <v>77</v>
       </c>
@@ -3820,7 +4313,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" ht="17.25" customHeight="1">
       <c r="A79" s="8" t="s">
         <v>77</v>
       </c>
@@ -3840,7 +4333,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" ht="17.25" customHeight="1">
       <c r="A80" s="8" t="s">
         <v>77</v>
       </c>
@@ -3860,7 +4353,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" ht="17.25" customHeight="1">
       <c r="A81" s="8" t="s">
         <v>77</v>
       </c>
@@ -3880,7 +4373,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" ht="17.25" customHeight="1">
       <c r="A82" s="8" t="s">
         <v>77</v>
       </c>
@@ -3900,7 +4393,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" ht="17.25" customHeight="1">
       <c r="A83" s="8" t="s">
         <v>77</v>
       </c>
@@ -3920,7 +4413,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" ht="17.25" customHeight="1">
       <c r="A84" s="8" t="s">
         <v>77</v>
       </c>
@@ -3940,7 +4433,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" ht="17.25" customHeight="1">
       <c r="A85" s="8" t="s">
         <v>77</v>
       </c>
@@ -3960,7 +4453,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" ht="17.25" customHeight="1">
       <c r="A86" s="8" t="s">
         <v>77</v>
       </c>
@@ -3980,7 +4473,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" ht="17.25" customHeight="1">
       <c r="A87" s="8" t="s">
         <v>77</v>
       </c>
@@ -4000,7 +4493,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" ht="17.25" customHeight="1">
       <c r="A88" s="8" t="s">
         <v>77</v>
       </c>
@@ -4020,7 +4513,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" ht="17.25" customHeight="1">
       <c r="A89" s="8" t="s">
         <v>77</v>
       </c>
@@ -4040,7 +4533,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" ht="31.5" customHeight="1">
       <c r="A90" s="8" t="s">
         <v>77</v>
       </c>
@@ -4060,7 +4553,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" ht="31.5" customHeight="1">
       <c r="A91" s="8" t="s">
         <v>244</v>
       </c>
@@ -4080,7 +4573,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" ht="17.25" customHeight="1">
       <c r="A92" s="8" t="s">
         <v>104</v>
       </c>
@@ -4100,7 +4593,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" ht="17.25" customHeight="1">
       <c r="A93" s="8" t="s">
         <v>104</v>
       </c>
@@ -4120,7 +4613,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" ht="17.25" customHeight="1">
       <c r="A94" s="8" t="s">
         <v>104</v>
       </c>
@@ -4140,7 +4633,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" ht="17.25" customHeight="1">
       <c r="A95" s="8" t="s">
         <v>104</v>
       </c>
@@ -4160,7 +4653,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" ht="17.25" customHeight="1">
       <c r="A96" s="8" t="s">
         <v>104</v>
       </c>
@@ -4180,7 +4673,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" ht="17.25" customHeight="1">
       <c r="A97" s="8" t="s">
         <v>104</v>
       </c>
@@ -4200,7 +4693,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" ht="17.25" customHeight="1">
       <c r="A98" s="8" t="s">
         <v>104</v>
       </c>
@@ -4220,7 +4713,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" ht="17.25" customHeight="1">
       <c r="A99" s="8" t="s">
         <v>104</v>
       </c>
@@ -4240,7 +4733,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" ht="17.25" customHeight="1">
       <c r="A100" s="8" t="s">
         <v>104</v>
       </c>
@@ -4260,7 +4753,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" ht="17.25" customHeight="1">
       <c r="A101" s="8" t="s">
         <v>104</v>
       </c>
@@ -4280,7 +4773,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" ht="17.25" customHeight="1">
       <c r="A102" s="8" t="s">
         <v>104</v>
       </c>
@@ -4300,7 +4793,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" ht="17.25" customHeight="1">
       <c r="A103" s="8" t="s">
         <v>104</v>
       </c>
@@ -4320,7 +4813,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" ht="17.25" customHeight="1">
       <c r="A104" s="8" t="s">
         <v>104</v>
       </c>
@@ -4340,7 +4833,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" ht="17.25" customHeight="1">
       <c r="A105" s="8" t="s">
         <v>104</v>
       </c>
@@ -4360,7 +4853,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" ht="17.25" customHeight="1">
       <c r="A106" s="8" t="s">
         <v>104</v>
       </c>
@@ -4380,7 +4873,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" ht="17.25" customHeight="1">
       <c r="A107" s="8" t="s">
         <v>104</v>
       </c>
@@ -4400,7 +4893,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" ht="17.25" customHeight="1">
       <c r="A108" s="8" t="s">
         <v>104</v>
       </c>
@@ -4420,7 +4913,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" ht="17.25" customHeight="1">
       <c r="A109" s="8" t="s">
         <v>104</v>
       </c>
@@ -4440,7 +4933,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" ht="17.25" customHeight="1">
       <c r="A110" s="8" t="s">
         <v>104</v>
       </c>
@@ -4460,7 +4953,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" ht="17.25" customHeight="1">
       <c r="A111" s="8" t="s">
         <v>104</v>
       </c>
@@ -4480,7 +4973,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" ht="17.25" customHeight="1">
       <c r="A112" s="8" t="s">
         <v>122</v>
       </c>
@@ -4500,7 +4993,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" ht="17.25" customHeight="1">
       <c r="A113" s="8" t="s">
         <v>122</v>
       </c>
@@ -4520,7 +5013,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" ht="17.25" customHeight="1">
       <c r="A114" s="8" t="s">
         <v>122</v>
       </c>
@@ -4540,7 +5033,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" ht="17.25" customHeight="1">
       <c r="A115" s="8" t="s">
         <v>122</v>
       </c>
@@ -4560,7 +5053,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" ht="17.25" customHeight="1">
       <c r="A116" s="8" t="s">
         <v>122</v>
       </c>
@@ -4580,7 +5073,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="66" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" ht="60">
       <c r="A117" s="8" t="s">
         <v>122</v>
       </c>
@@ -4600,7 +5093,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" ht="17.25" customHeight="1">
       <c r="A118" s="8" t="s">
         <v>122</v>
       </c>
@@ -4620,7 +5113,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" ht="17.25" customHeight="1">
       <c r="A119" s="8" t="s">
         <v>122</v>
       </c>
@@ -4640,7 +5133,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" ht="17.25" customHeight="1">
       <c r="A120" s="8" t="s">
         <v>122</v>
       </c>
@@ -4660,7 +5153,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" ht="17.25" customHeight="1">
       <c r="A121" s="8" t="s">
         <v>122</v>
       </c>
@@ -4680,7 +5173,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" ht="17.25" customHeight="1">
       <c r="A122" s="8" t="s">
         <v>122</v>
       </c>
@@ -4700,7 +5193,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" ht="17.25" customHeight="1">
       <c r="A123" s="8" t="s">
         <v>122</v>
       </c>
@@ -4720,7 +5213,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" ht="17.25" customHeight="1">
       <c r="A124" s="8" t="s">
         <v>159</v>
       </c>
@@ -4740,7 +5233,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" ht="17.25" customHeight="1">
       <c r="A125" s="8" t="s">
         <v>159</v>
       </c>
@@ -4760,7 +5253,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" ht="45">
       <c r="A126" s="8" t="s">
         <v>159</v>
       </c>
@@ -4780,7 +5273,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" ht="17.25" customHeight="1">
       <c r="A127" s="8" t="s">
         <v>159</v>
       </c>
@@ -4800,7 +5293,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" ht="17.25" customHeight="1">
       <c r="A128" s="8" t="s">
         <v>159</v>
       </c>
@@ -4820,7 +5313,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" ht="17.25" customHeight="1">
       <c r="A129" s="8" t="s">
         <v>180</v>
       </c>
@@ -4840,7 +5333,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" ht="17.25" customHeight="1">
       <c r="A130" s="8" t="s">
         <v>180</v>
       </c>
@@ -4860,7 +5353,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" ht="17.25" customHeight="1">
       <c r="A131" s="8" t="s">
         <v>180</v>
       </c>
@@ -4880,7 +5373,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" ht="17.25" customHeight="1">
       <c r="A132" s="8" t="s">
         <v>180</v>
       </c>
@@ -4900,7 +5393,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" ht="17.25" customHeight="1">
       <c r="A133" s="8" t="s">
         <v>180</v>
       </c>
@@ -4920,7 +5413,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" ht="17.25" customHeight="1">
       <c r="A134" s="8" t="s">
         <v>250</v>
       </c>
@@ -4940,7 +5433,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" ht="17.25" customHeight="1">
       <c r="A135" s="8" t="s">
         <v>181</v>
       </c>
@@ -4948,7 +5441,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" ht="17.25" customHeight="1">
       <c r="A136" s="8" t="s">
         <v>182</v>
       </c>
@@ -4956,7 +5449,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="66" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" ht="60">
       <c r="A137" s="8" t="s">
         <v>23</v>
       </c>
@@ -4976,7 +5469,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" ht="15">
       <c r="A138" s="8" t="s">
         <v>23</v>
       </c>
@@ -4996,7 +5489,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" ht="15">
       <c r="A139" s="8" t="s">
         <v>23</v>
       </c>
@@ -5016,7 +5509,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" ht="45">
       <c r="A140" s="8" t="s">
         <v>23</v>
       </c>
@@ -5036,7 +5529,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" ht="15">
       <c r="A141" s="8" t="s">
         <v>23</v>
       </c>
@@ -5056,7 +5549,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" ht="45">
       <c r="A142" s="8" t="s">
         <v>23</v>
       </c>
@@ -5076,7 +5569,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" ht="45">
       <c r="A143" s="8" t="s">
         <v>23</v>
       </c>
@@ -5096,7 +5589,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" ht="45">
       <c r="A144" s="8" t="s">
         <v>23</v>
       </c>
@@ -5116,7 +5609,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" ht="45">
       <c r="A145" s="8" t="s">
         <v>23</v>
       </c>
@@ -5136,7 +5629,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" ht="15">
       <c r="A146" s="8" t="s">
         <v>23</v>
       </c>
@@ -5156,7 +5649,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="66" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" ht="60">
       <c r="A147" s="8" t="s">
         <v>23</v>
       </c>
@@ -5176,7 +5669,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" ht="17.25" customHeight="1">
       <c r="A148" s="8" t="s">
         <v>23</v>
       </c>
@@ -5196,7 +5689,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" ht="17.25" customHeight="1">
       <c r="A149" s="8" t="s">
         <v>23</v>
       </c>
@@ -5216,7 +5709,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" ht="17.25" customHeight="1">
       <c r="A150" s="8" t="s">
         <v>23</v>
       </c>
@@ -5236,7 +5729,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" ht="17.25" customHeight="1">
       <c r="A151" s="8" t="s">
         <v>23</v>
       </c>
@@ -5256,7 +5749,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" ht="17.25" customHeight="1">
       <c r="A152" s="8" t="s">
         <v>23</v>
       </c>
@@ -5276,7 +5769,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" ht="17.25" customHeight="1">
       <c r="A153" s="8" t="s">
         <v>359</v>
       </c>
@@ -5296,7 +5789,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" ht="17.25" customHeight="1">
       <c r="A154" s="8" t="s">
         <v>373</v>
       </c>
@@ -5307,7 +5800,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" ht="17.25" customHeight="1">
       <c r="A155" s="8" t="s">
         <v>373</v>
       </c>
@@ -5318,7 +5811,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" ht="17.25" customHeight="1">
       <c r="A156" s="8" t="s">
         <v>373</v>
       </c>
@@ -5329,7 +5822,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" ht="17.25" customHeight="1">
       <c r="A157" s="8" t="s">
         <v>373</v>
       </c>
@@ -5340,7 +5833,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" ht="17.25" customHeight="1">
       <c r="A158" s="8" t="s">
         <v>373</v>
       </c>
@@ -5351,7 +5844,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" ht="17.25" customHeight="1">
       <c r="A159" s="8" t="s">
         <v>373</v>
       </c>
@@ -5362,7 +5855,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" ht="17.25" customHeight="1">
       <c r="A160" s="8" t="s">
         <v>373</v>
       </c>
@@ -5373,7 +5866,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" ht="17.25" customHeight="1">
       <c r="A161" s="8" t="s">
         <v>373</v>
       </c>
@@ -5384,7 +5877,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" ht="17.25" customHeight="1">
       <c r="A162" s="8" t="s">
         <v>373</v>
       </c>
@@ -5395,7 +5888,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" ht="17.25" customHeight="1">
       <c r="A163" s="8" t="s">
         <v>373</v>
       </c>
@@ -5406,7 +5899,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" ht="17.25" customHeight="1">
       <c r="A164" s="8" t="s">
         <v>373</v>
       </c>
@@ -5417,7 +5910,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" ht="17.25" customHeight="1">
       <c r="A165" s="8" t="s">
         <v>373</v>
       </c>
@@ -5428,7 +5921,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" ht="17.25" customHeight="1">
       <c r="A166" s="8" t="s">
         <v>373</v>
       </c>
@@ -5439,7 +5932,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" ht="17.25" customHeight="1">
       <c r="A167" s="8" t="s">
         <v>373</v>
       </c>
@@ -5453,7 +5946,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5461,21 +5959,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9" style="12"/>
-    <col min="2" max="2" width="33.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.83203125" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="12"/>
-    <col min="4" max="4" width="52.625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="35.375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="52.6640625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" style="17" customWidth="1"/>
     <col min="6" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="51.75" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>255</v>
       </c>
@@ -5507,7 +6005,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" s="13" t="s">
         <v>265</v>
       </c>
@@ -5527,7 +6025,7 @@
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
@@ -5545,7 +6043,7 @@
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13" t="s">
@@ -5563,7 +6061,7 @@
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13" t="s">
@@ -5581,7 +6079,7 @@
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13" t="s">
@@ -5599,7 +6097,7 @@
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7" s="13" t="s">
         <v>275</v>
       </c>
@@ -5617,7 +6115,7 @@
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -5633,7 +6131,7 @@
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
     </row>
-    <row r="9" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="42">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -5649,7 +6147,7 @@
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
     </row>
-    <row r="10" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="42">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -5665,7 +6163,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -5681,7 +6179,7 @@
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
     </row>
-    <row r="12" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="56">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -5697,7 +6195,7 @@
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -5713,7 +6211,7 @@
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -5729,7 +6227,7 @@
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -5745,7 +6243,7 @@
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -5761,7 +6259,7 @@
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -5780,7 +6278,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -5796,7 +6294,7 @@
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
     </row>
-    <row r="19" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15" ht="28">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -5812,7 +6310,7 @@
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
     </row>
-    <row r="20" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15" ht="42">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -5828,7 +6326,7 @@
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -5844,7 +6342,7 @@
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -5860,7 +6358,7 @@
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -5876,7 +6374,7 @@
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -5892,7 +6390,7 @@
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -5908,7 +6406,7 @@
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
     </row>
-    <row r="26" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15" ht="42">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -5924,7 +6422,7 @@
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
     </row>
-    <row r="27" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15" ht="42">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -5940,7 +6438,7 @@
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
     </row>
-    <row r="28" spans="1:15" ht="54" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15" ht="56">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -5956,7 +6454,7 @@
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
     </row>
-    <row r="29" spans="1:15" ht="54" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15" ht="56">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -5972,7 +6470,7 @@
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
     </row>
-    <row r="32" spans="1:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15" ht="45">
       <c r="A32" s="10" t="s">
         <v>255</v>
       </c>
@@ -6004,7 +6502,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10">
       <c r="A33" s="13" t="s">
         <v>319</v>
       </c>
@@ -6020,7 +6518,7 @@
       <c r="I33" s="13"/>
       <c r="J33" s="13"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10">
       <c r="A34" s="13"/>
       <c r="B34" s="13" t="s">
         <v>321</v>
@@ -6034,7 +6532,7 @@
       <c r="I34" s="13"/>
       <c r="J34" s="13"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10">
       <c r="A35" s="13"/>
       <c r="B35" s="13" t="s">
         <v>322</v>
@@ -6048,7 +6546,7 @@
       <c r="I35" s="13"/>
       <c r="J35" s="13"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10">
       <c r="A36" s="13"/>
       <c r="B36" s="13" t="s">
         <v>323</v>
@@ -6062,7 +6560,7 @@
       <c r="I36" s="13"/>
       <c r="J36" s="13"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10">
       <c r="A37" s="13"/>
       <c r="B37" s="13" t="s">
         <v>324</v>
@@ -6076,7 +6574,7 @@
       <c r="I37" s="13"/>
       <c r="J37" s="13"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10">
       <c r="A38" s="13"/>
       <c r="B38" s="20" t="s">
         <v>325</v>
@@ -6090,7 +6588,7 @@
       <c r="I38" s="13"/>
       <c r="J38" s="13"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10">
       <c r="A39" s="13"/>
       <c r="B39" s="20" t="s">
         <v>326</v>
@@ -6104,7 +6602,7 @@
       <c r="I39" s="13"/>
       <c r="J39" s="13"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10">
       <c r="A40" s="13"/>
       <c r="B40" s="20" t="s">
         <v>327</v>
@@ -6118,7 +6616,7 @@
       <c r="I40" s="13"/>
       <c r="J40" s="13"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10">
       <c r="A41" s="13"/>
       <c r="B41" s="20" t="s">
         <v>328</v>
@@ -6135,6 +6633,11 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>